--- a/DicionarioDeDados-Contas.xlsx
+++ b/DicionarioDeDados-Contas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSDS\Documents\GitHub\Open-Banking-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSDS\Documents\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86513251-36EB-4273-AC9A-65E118991BA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECB9BC9-8CD7-4223-99FF-050F19056DB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ContaCorrentePF" sheetId="6" r:id="rId1"/>
@@ -1834,6 +1834,1281 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="95.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="86.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.85546875" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/",B2)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/name</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B3)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/name</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B4)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/cnpjNumber</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="199.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/",B5)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/type</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <v>3</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" ht="390" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/fees/priorityServices/",B6)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/fees/priorityServices/name</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="9">
+        <v>23</v>
+      </c>
+      <c r="J6" s="9">
+        <v>23</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="str">
+        <f t="shared" ref="A7:A11" si="0">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/fees/priorityServices/",B7)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/fees/priorityServices/code</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="9">
+        <v>23</v>
+      </c>
+      <c r="J7" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/fees/priorityServices/",B8)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/fees/priorityServices/chargingTriggerInfo</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6">
+        <v>500</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="9">
+        <v>23</v>
+      </c>
+      <c r="J8" s="9">
+        <v>23</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/fees/priorityServices/",B9)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/fees/priorityServices/maxPrice</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="9">
+        <v>23</v>
+      </c>
+      <c r="J9" s="9">
+        <v>23</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/fees/priorityServices/currency</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="9">
+        <v>23</v>
+      </c>
+      <c r="J10" s="9">
+        <v>23</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/fees/priorityServices/chargingUnit</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="9">
+        <v>23</v>
+      </c>
+      <c r="J11" s="9">
+        <v>23</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/",B12)</f>
+        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/name</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/",B13)</f>
+        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/code</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>30</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/",B14)</f>
+        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/chargingTriggerInfo</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>500</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/price/",B15)</f>
+        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/price/type</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="6">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>3</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/price/",B16)</f>
+        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/price/value</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="24">
+        <v>3</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/price/",B17)</f>
+        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/price/currency</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>3</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/",B18)</f>
+        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/priceInfo</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="6">
+        <v>80</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/",B19)</f>
+        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/chargingUnit</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="6">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="9">
+        <v>1</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/",B20)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/name</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/services/",B21)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/services/code</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="6">
+        <v>30</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="20">
+        <v>1</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/services/",B22)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/services/eventLimitQuantity</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="20">
+        <v>1</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/services/",B23)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/services/freeEventQuantity</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="8">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="20">
+        <v>1</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/services/",B24)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/services/maxPrice</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="8">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="20">
+        <v>1</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/services/",B25)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/services/currency</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="6">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="20">
+        <v>1</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/",B26)</f>
+        <v xml:space="preserve">openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/openCloseChannels </v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="6">
+        <v>30</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="9">
+        <v>1</v>
+      </c>
+      <c r="J26" s="9">
+        <v>7</v>
+      </c>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/",B27)</f>
+        <v xml:space="preserve">openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/transactionMethods  </v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="8">
+        <v>30</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="9">
+        <v>1</v>
+      </c>
+      <c r="J27" s="9">
+        <v>4</v>
+      </c>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/termsConditions/",B28)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/termsConditions/minimumBalance</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="6">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="9">
+        <v>1</v>
+      </c>
+      <c r="J28" s="9">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/termsConditions/",B29)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/termsConditions/minimumBalanceCurrency</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="8">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="9">
+        <v>1</v>
+      </c>
+      <c r="J29" s="9">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/termsConditions/",B30)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/termsConditions/elegibilityCriteriaInfo</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="9">
+        <v>1</v>
+      </c>
+      <c r="J30" s="9">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/termsConditions/",B31)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/termsConditions/closingProcessInfo</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="9">
+        <v>1</v>
+      </c>
+      <c r="J31" s="9">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/incomeRates/",B32)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/incomeRates/rate</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="6">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="9">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="str">
+        <f t="shared" ref="A33:A37" si="1">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/incomeRates/",B33)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/incomeRates/referencialRate</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="8">
+        <v>7</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/incomeRates/indexer</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="6">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="9">
+        <v>0</v>
+      </c>
+      <c r="J34" s="9">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/incomeRates/prePostTax</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="8">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0</v>
+      </c>
+      <c r="J35" s="9">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/incomeRates/frequency</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="6">
+        <v>4</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+      <c r="J36" s="9">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/incomeRates/additionalinfo</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="9">
+        <v>0</v>
+      </c>
+      <c r="J37" s="9">
+        <v>1</v>
+      </c>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B69E19-DBEE-4F4F-B151-FA682E1652F1}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
@@ -1937,7 +3212,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -2000,1281 +3275,6 @@
     </row>
     <row r="5" spans="1:12" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/",B5)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/type</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="6">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9">
-        <v>3</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="19"/>
-    </row>
-    <row r="6" spans="1:12" ht="390" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/fees/priorityServices/",B6)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/fees/priorityServices/name</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="6">
-        <v>50</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="9">
-        <v>23</v>
-      </c>
-      <c r="J6" s="9">
-        <v>23</v>
-      </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="str">
-        <f t="shared" ref="A7:A11" si="0">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/fees/priorityServices/",B7)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/fees/priorityServices/code</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="9">
-        <v>23</v>
-      </c>
-      <c r="J7" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/fees/priorityServices/",B8)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/fees/priorityServices/chargingTriggerInfo</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6">
-        <v>500</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="9">
-        <v>23</v>
-      </c>
-      <c r="J8" s="9">
-        <v>23</v>
-      </c>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/fees/priorityServices/",B9)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/fees/priorityServices/maxPrice</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="9">
-        <v>23</v>
-      </c>
-      <c r="J9" s="9">
-        <v>23</v>
-      </c>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/fees/priorityServices/currency</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="9">
-        <v>23</v>
-      </c>
-      <c r="J10" s="9">
-        <v>23</v>
-      </c>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/fees/priorityServices/chargingUnit</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
-        <v>50</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="9">
-        <v>23</v>
-      </c>
-      <c r="J11" s="9">
-        <v>23</v>
-      </c>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/",B12)</f>
-        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/name</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6">
-        <v>50</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/",B13)</f>
-        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/code</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="6">
-        <v>30</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/",B14)</f>
-        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/chargingTriggerInfo</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="6">
-        <v>500</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/price/",B15)</f>
-        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/price/type</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="6">
-        <v>6</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <v>3</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/price/",B16)</f>
-        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/price/value</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="6">
-        <v>12</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="24">
-        <v>3</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/price/",B17)</f>
-        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/price/currency</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="6">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9">
-        <v>3</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/",B18)</f>
-        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/priceInfo</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="6">
-        <v>80</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/",B19)</f>
-        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalAccounts/fees/otherServices/chargingUnit</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="6">
-        <v>50</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="9">
-        <v>1</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/",B20)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/name</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="6">
-        <v>50</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/services/",B21)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/services/code</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="6">
-        <v>30</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="20">
-        <v>1</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/services/",B22)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/services/eventLimitQuantity</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="6">
-        <v>4</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="20">
-        <v>1</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/services/",B23)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/services/freeEventQuantity</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="8">
-        <v>4</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="20">
-        <v>1</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/services/",B24)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/services/maxPrice</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="8">
-        <v>12</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="20">
-        <v>1</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/services/",B25)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/serviceBundles/services/currency</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="6">
-        <v>3</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="20">
-        <v>1</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/",B26)</f>
-        <v xml:space="preserve">openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/openCloseChannels </v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="6">
-        <v>30</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="9">
-        <v>1</v>
-      </c>
-      <c r="J26" s="9">
-        <v>7</v>
-      </c>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/",B27)</f>
-        <v xml:space="preserve">openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/transactionMethods  </v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="8">
-        <v>30</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="9">
-        <v>1</v>
-      </c>
-      <c r="J27" s="9">
-        <v>4</v>
-      </c>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/termsCondictions/",B28)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/termsCondictions/minimumBalance</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="6">
-        <v>12</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="9">
-        <v>1</v>
-      </c>
-      <c r="J28" s="9">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="str">
-        <f t="shared" ref="A29:A31" si="1">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/termsCondictions/",B29)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/termsCondictions/minimumBalanceCurrency</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="8">
-        <v>3</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="9">
-        <v>1</v>
-      </c>
-      <c r="J29" s="9">
-        <v>1</v>
-      </c>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/termsCondictions/elegibilityCriteriaInfo</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="6">
-        <v>1000</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="9">
-        <v>1</v>
-      </c>
-      <c r="J30" s="9">
-        <v>1</v>
-      </c>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/termsCondictions/closingProcessInfo</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="9">
-        <v>1</v>
-      </c>
-      <c r="J31" s="9">
-        <v>1</v>
-      </c>
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/incomeRates/",B32)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/incomeRates/rate</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="6">
-        <v>7</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="9">
-        <v>0</v>
-      </c>
-      <c r="J32" s="9">
-        <v>1</v>
-      </c>
-      <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="str">
-        <f t="shared" ref="A33:A37" si="2">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/incomeRates/",B33)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/incomeRates/referencialRate</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="8">
-        <v>7</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="9">
-        <v>0</v>
-      </c>
-      <c r="J33" s="9">
-        <v>1</v>
-      </c>
-      <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/incomeRates/indexer</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="6">
-        <v>10</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="9">
-        <v>0</v>
-      </c>
-      <c r="J34" s="9">
-        <v>1</v>
-      </c>
-      <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/incomeRates/prePostTax</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="8">
-        <v>3</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0</v>
-      </c>
-      <c r="J35" s="9">
-        <v>1</v>
-      </c>
-      <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/incomeRates/frequency</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="6">
-        <v>4</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="I36" s="9">
-        <v>0</v>
-      </c>
-      <c r="J36" s="9">
-        <v>1</v>
-      </c>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalAccounts/incomeRates/additionalinfo</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="9">
-        <v>0</v>
-      </c>
-      <c r="J37" s="9">
-        <v>1</v>
-      </c>
-      <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B69E19-DBEE-4F4F-B151-FA682E1652F1}">
-  <dimension ref="A1:L35"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="95.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="63" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="86.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.85546875" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/",B2)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/name</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="9">
-        <v>1</v>
-      </c>
-      <c r="J2" s="9">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="19"/>
-    </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B3)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/name</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="9">
-        <v>1</v>
-      </c>
-      <c r="J3" s="9">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B4)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/cnpjNumber</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="199.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessAccounts/",B5)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessAccounts/type</v>
       </c>
@@ -3826,8 +3826,8 @@
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessAccounts/termsCondictions/",B22)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessAccounts/termsCondictions/minimumBalance</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessAccounts/termsConditions/",B22)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessAccounts/termsConditions/minimumBalance</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>29</v>
@@ -3858,8 +3858,8 @@
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessAccounts/termsCondictions/",B23)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessAccounts/termsCondictions/minimumBalanceCurrency</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessAccounts/termsConditions/",B23)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessAccounts/termsConditions/minimumBalanceCurrency</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>30</v>
@@ -3892,8 +3892,8 @@
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessAccounts/termsCondictions/",B24)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessAccounts/termsCondictions/elegibilityCriteriaInfo</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessAccounts/termsConditions/",B24)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessAccounts/termsConditions/elegibilityCriteriaInfo</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>31</v>
@@ -3922,8 +3922,8 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessAccounts/termsCondictions/",B25)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessAccounts/termsCondictions/closingProcessInfo</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessAccounts/termsConditions/",B25)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessAccounts/termsConditions/closingProcessInfo</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>32</v>

--- a/DicionarioDeDados-Contas.xlsx
+++ b/DicionarioDeDados-Contas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSDS\Documents\GitHub\Open-Banking-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB754E7-F94C-4711-9272-8C32320D6997}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D55E2B32-FB5C-4ED7-9839-5B0D71DEBDED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ContaCorrentePF" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="134">
   <si>
     <t>Xpath</t>
   </si>
@@ -819,6 +819,33 @@
     <t>Saldo mínimo exigido nos Termos e condições contratuais, que regem as contas comercializadas. P.ex. '500.00'
 (representa um valor monetário. Ex: 1547368.92 (O valor ao lado, considerando que a moeda seja BRL, significa R$ 1.547.368,92). O único separador presente deverá ser o . (ponto) para casa decimal. Não deve haver separador de milhar)</t>
   </si>
+  <si>
+    <t>Valor do percentual que corresponde a taxa de remuneração prevista para a conta p. ex. do tipo 'poupança'.
+(representação de uma porcentagem
+Ex: 0.15 (O valor ao lado representa 15%. O valor 1 representa 100%))</t>
+  </si>
+  <si>
+    <t>Valor do percentual que corresponde a taxa de remuneração efetivamente aplicada no intervalo informado (representação de uma porcentagem Ex: 0.15 (O valor ao lado representa 15%. O valor 1 representa 100%))</t>
+  </si>
+  <si>
+    <t>Identifica o período referente ao percentual de taxa de remuneração efetivamente aplicada no intervalo informado: mínimo, 1º quartil de clientes, 2º quartil de clientes, 3º quartil de clientes e 4º quartil de clientes</t>
+  </si>
+  <si>
+    <t>Valor de referência utilizado na apuração dos percentuais informados por quartil
+(representa um valor monetário Ex: 1547368.92 (O valor ao lado, considerando que a moeda seja BRL, significa R$ 1.547.368,92). O único separador presente deverá ser o . (ponto) para casa decimal. Não deve haver separador de milhar)</t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moeda relativa ao valor de referência, segundo modelo ISO-4217. p. ex. 'BRL' </t>
+  </si>
+  <si>
+    <t>referenceValue</t>
+  </si>
+  <si>
+    <t>referenceCurrency</t>
+  </si>
 </sst>
 </file>
 
@@ -868,7 +895,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -878,6 +905,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -977,9 +1010,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -998,12 +1028,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1280,11 +1342,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,10 +1517,10 @@
       <c r="C5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="D5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="24">
         <v>70</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1491,7 +1553,7 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1530,7 +1592,7 @@
       <c r="G7" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="27" t="s">
         <v>99</v>
       </c>
       <c r="I7" s="8">
@@ -1758,7 +1820,7 @@
       <c r="G14" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="27" t="s">
         <v>99</v>
       </c>
       <c r="I14" s="8">
@@ -2036,14 +2098,14 @@
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="str">
+      <c r="A23" s="1" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/",B23)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/types</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2055,28 +2117,28 @@
       <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="I23" s="23">
-        <v>5</v>
-      </c>
-      <c r="J23" s="23">
-        <v>5</v>
-      </c>
-      <c r="K23" s="18" t="s">
+      <c r="I23" s="8">
+        <v>5</v>
+      </c>
+      <c r="J23" s="8">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="str">
+      <c r="A24" s="1" t="str">
         <f t="shared" ref="A24:A25" si="1">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/",B24)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/value</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2095,22 +2157,22 @@
         <v>68</v>
       </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="23">
-        <v>5</v>
-      </c>
-      <c r="J24" s="23">
-        <v>5</v>
-      </c>
-      <c r="K24" s="18" t="s">
+      <c r="I24" s="8">
+        <v>5</v>
+      </c>
+      <c r="J24" s="8">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="str">
+      <c r="A25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/currency</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -2131,25 +2193,25 @@
       <c r="H25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="23">
-        <v>5</v>
-      </c>
-      <c r="J25" s="23">
-        <v>5</v>
-      </c>
-      <c r="K25" s="18" t="s">
+      <c r="I25" s="8">
+        <v>5</v>
+      </c>
+      <c r="J25" s="8">
+        <v>5</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="str">
+      <c r="A26" s="1" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/price/",B26)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/price/types</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="3" t="s">
         <v>120</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -2161,31 +2223,31 @@
       <c r="F26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="H26" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="I26" s="23">
-        <v>5</v>
-      </c>
-      <c r="J26" s="23">
-        <v>5</v>
-      </c>
-      <c r="K26" s="18" t="s">
+      <c r="I26" s="8">
+        <v>5</v>
+      </c>
+      <c r="J26" s="8">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="str">
+      <c r="A27" s="1" t="str">
         <f t="shared" ref="A27:A28" si="2">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/price/",B27)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/price/monthly</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -2201,25 +2263,25 @@
         <v>68</v>
       </c>
       <c r="H27" s="10"/>
-      <c r="I27" s="23">
-        <v>5</v>
-      </c>
-      <c r="J27" s="23">
-        <v>5</v>
-      </c>
-      <c r="K27" s="18" t="s">
+      <c r="I27" s="8">
+        <v>5</v>
+      </c>
+      <c r="J27" s="8">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="str">
+      <c r="A28" s="1" t="str">
         <f t="shared" si="2"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/price/currency</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2237,13 +2299,13 @@
       <c r="H28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I28" s="23">
-        <v>5</v>
-      </c>
-      <c r="J28" s="23">
-        <v>5</v>
-      </c>
-      <c r="K28" s="18" t="s">
+      <c r="I28" s="8">
+        <v>5</v>
+      </c>
+      <c r="J28" s="8">
+        <v>5</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L28" s="5"/>
@@ -2265,7 +2327,7 @@
       <c r="C29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="5">
@@ -2297,7 +2359,7 @@
       <c r="C30" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="5">
@@ -2310,13 +2372,13 @@
         <v>12</v>
       </c>
       <c r="H30" s="4"/>
-      <c r="I30" s="23">
+      <c r="I30" s="8">
         <v>0</v>
       </c>
-      <c r="J30" s="23">
-        <v>1</v>
-      </c>
-      <c r="K30" s="18" t="s">
+      <c r="J30" s="8">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2487,7 +2549,7 @@
         <v>53</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>10</v>
@@ -2553,7 +2615,7 @@
       <c r="C38" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="5">
@@ -2583,7 +2645,7 @@
       <c r="C39" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="7">
@@ -2615,7 +2677,7 @@
       <c r="C40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="5">
@@ -2666,47 +2728,145 @@
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="10"/>
+    <row r="42" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/",B42)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/types</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="32">
+        <v>30</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="34">
+        <v>5</v>
+      </c>
+      <c r="J42" s="34">
+        <v>5</v>
+      </c>
+      <c r="K42" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/",B43)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/rate</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="32">
+        <v>7</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="35"/>
+      <c r="I43" s="34">
+        <v>5</v>
+      </c>
+      <c r="J43" s="34">
+        <v>5</v>
+      </c>
+      <c r="K43" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/",B44)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/referenceValue</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="34">
+        <v>12</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="29"/>
+      <c r="I44" s="34">
+        <v>1</v>
+      </c>
+      <c r="J44" s="34">
+        <v>1</v>
+      </c>
+      <c r="K44" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/",B45)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/referenceCurrency</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="36">
+        <v>3</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="I45" s="34">
+        <v>1</v>
+      </c>
+      <c r="J45" s="34">
+        <v>1</v>
+      </c>
+      <c r="K45" s="30" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2718,18 +2878,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B69E19-DBEE-4F4F-B151-FA682E1652F1}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="94.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="80" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="8" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
@@ -2812,7 +2972,7 @@
       </c>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/",B3)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/name</v>
@@ -2890,13 +3050,13 @@
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="D5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="24">
         <v>70</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -2915,7 +3075,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/",B6)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/name</v>
@@ -3016,7 +3176,7 @@
       <c r="C9" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="21">
@@ -3026,7 +3186,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="22"/>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="27" t="s">
         <v>99</v>
       </c>
       <c r="I9" s="8">
@@ -3039,7 +3199,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/price/",B10)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/price/value</v>
@@ -3271,7 +3431,7 @@
       </c>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/",B17)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/freeEventQuantity</v>
@@ -3314,7 +3474,7 @@
       <c r="C18" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="26" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="21">
@@ -3326,7 +3486,7 @@
       <c r="G18" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="27" t="s">
         <v>99</v>
       </c>
       <c r="I18" s="8">
@@ -3432,7 +3592,7 @@
       <c r="G21" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="27" t="s">
         <v>99</v>
       </c>
       <c r="I21" s="8">
@@ -3526,7 +3686,7 @@
       <c r="C24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="5">
@@ -3558,7 +3718,7 @@
       <c r="C25" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="5">
@@ -3592,7 +3752,7 @@
       <c r="C26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="7">
@@ -3613,7 +3773,7 @@
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/",B27)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/minimumBalance</v>
@@ -3645,7 +3805,7 @@
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/",B28)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/minimumBalanceCurrency</v>
@@ -3679,7 +3839,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/",B29)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/elegibilityCriteriaInfo</v>
@@ -3771,7 +3931,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/referencialRate</v>
@@ -3811,10 +3971,10 @@
       <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="5">
@@ -3841,10 +4001,10 @@
       <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="7">
@@ -3876,7 +4036,7 @@
       <c r="C35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="5">
@@ -3927,47 +4087,145 @@
       </c>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="10"/>
+    <row r="37" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/application/",B37)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/application/types</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="34">
+        <v>30</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" s="34">
+        <v>5</v>
+      </c>
+      <c r="J37" s="34">
+        <v>5</v>
+      </c>
+      <c r="K37" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/application/",B38)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/application/rate</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="34">
+        <v>7</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="35"/>
+      <c r="I38" s="34">
+        <v>5</v>
+      </c>
+      <c r="J38" s="34">
+        <v>5</v>
+      </c>
+      <c r="K38" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/",B39)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/referenceValue</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="34">
+        <v>12</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" s="29"/>
+      <c r="I39" s="34">
+        <v>1</v>
+      </c>
+      <c r="J39" s="34">
+        <v>1</v>
+      </c>
+      <c r="K39" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/",B40)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/referenceCurrency</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="36">
+        <v>3</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="I40" s="34">
+        <v>1</v>
+      </c>
+      <c r="J40" s="34">
+        <v>1</v>
+      </c>
+      <c r="K40" s="30" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DicionarioDeDados-Contas.xlsx
+++ b/DicionarioDeDados-Contas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSDS\Documents\GitHub\Open-Banking-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D55E2B32-FB5C-4ED7-9839-5B0D71DEBDED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A111A7BE-679B-4939-9861-09C2538F1A0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ContaCorrentePF" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="134">
   <si>
     <t>Xpath</t>
   </si>
@@ -661,9 +661,6 @@
     <t>Indica o tipo de valor da tarifa informado: mínimo, 1º quartil de clientes, 2º quartil de clientes, 3º quartil de clientes e 4º quartil de clientes</t>
   </si>
   <si>
-    <t>Indica o tipo de valor referente qo Pacote de serviço informado: mínimo, 1º quartil de clientes, 2º quartil de clientes, 3º quartil de clientes e 4º quartil de clientes</t>
-  </si>
-  <si>
     <t>Campo de preenchimento obrigatório se em  'openingClosingChannels' estiver preenchida a opção 'Outros'</t>
   </si>
   <si>
@@ -845,6 +842,9 @@
   </si>
   <si>
     <t>referenceCurrency</t>
+  </si>
+  <si>
+    <t>Indica o tipo de valor referente ao Pacote de serviço informado: mínimo, 1º quartil de clientes, 2º quartil de clientes, 3º quartil de clientes e 4º quartil de clientes</t>
   </si>
 </sst>
 </file>
@@ -1340,13 +1340,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B44" sqref="B44:B45"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,7 +1578,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -1602,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1614,7 +1614,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -1636,7 +1636,7 @@
         <v>5</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -1672,117 +1672,127 @@
         <v>5</v>
       </c>
       <c r="K9" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/",B10)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/referenceValue</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="34">
+        <v>12</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="34">
+        <v>1</v>
+      </c>
+      <c r="J10" s="34">
+        <v>1</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/",B11)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/referenceCurrency</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="36">
+        <v>3</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="34">
+        <v>1</v>
+      </c>
+      <c r="J11" s="34">
+        <v>1</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/",B12)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/chargingUnit</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/",B10)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/chargingUnit</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5">
         <v>50</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="8">
+      <c r="H12" s="4"/>
+      <c r="I12" s="8">
         <v>23</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J12" s="8">
         <v>23</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/",B11)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/name</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5">
-        <v>50</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/",B12)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/code</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5">
-        <v>30</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/",B13)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/chargingTriggerInfo</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>60</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/name</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
@@ -1797,16 +1807,16 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/",B14)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/type</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>114</v>
+    <row r="14" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/",B14)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/code</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
@@ -1815,83 +1825,73 @@
         <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>99</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="8">
-        <v>5</v>
-      </c>
-      <c r="J14" s="8">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/",B15)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/value</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>61</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/",B15)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/chargingTriggerInfo</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="5">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="8">
-        <v>5</v>
-      </c>
-      <c r="J15" s="8">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/",B16)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/currency</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/type</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>52</v>
+        <v>20</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="5">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="I16" s="8">
         <v>5</v>
@@ -1903,969 +1903,1249 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/",B17)</f>
+    <row r="17" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/",B17)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/value</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="8">
+        <v>5</v>
+      </c>
+      <c r="J17" s="8">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/",B18)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/currency</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="8">
+        <v>5</v>
+      </c>
+      <c r="J18" s="8">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/",B19)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/referenceValue</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="34">
+        <v>12</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="34">
+        <v>1</v>
+      </c>
+      <c r="J19" s="34">
+        <v>1</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/",B20)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/referenceCurrency</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="36">
+        <v>3</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="34">
+        <v>1</v>
+      </c>
+      <c r="J20" s="34">
+        <v>1</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/",B21)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/additionalInfo</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="5">
         <v>80</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="8">
+      <c r="H21" s="4"/>
+      <c r="I21" s="8">
         <v>0</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/",B18)</f>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/",B22)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/chargingUnit</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5">
         <v>50</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="8">
-        <v>1</v>
-      </c>
-      <c r="J18" s="8" t="s">
+      <c r="H22" s="4"/>
+      <c r="I22" s="8">
+        <v>1</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/",B19)</f>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/",B23)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/name</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5">
         <v>50</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="9">
-        <v>1</v>
-      </c>
-      <c r="J19" s="9" t="s">
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="9">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/",B20)</f>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/",B24)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/code</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5">
         <v>30</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3" t="s">
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="9">
-        <v>1</v>
-      </c>
-      <c r="J20" s="9" t="s">
+      <c r="I24" s="9">
+        <v>1</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/",B21)</f>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/",B25)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/eventLimitQuantity</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="5">
         <v>4</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="9">
-        <v>1</v>
-      </c>
-      <c r="J21" s="9" t="s">
+      <c r="H25" s="10"/>
+      <c r="I25" s="9">
+        <v>1</v>
+      </c>
+      <c r="J25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/",B22)</f>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/",B26)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/freeEventQuantity</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="7">
         <v>4</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="9">
-        <v>1</v>
-      </c>
-      <c r="J22" s="9" t="s">
+      <c r="H26" s="10"/>
+      <c r="I26" s="9">
+        <v>1</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:18" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/",B23)</f>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/",B27)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/types</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5">
+        <v>30</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="8">
+        <v>5</v>
+      </c>
+      <c r="J27" s="8">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="str">
+        <f t="shared" ref="A28:A29" si="1">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/",B28)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/value</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="5">
-        <v>30</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I23" s="8">
-        <v>5</v>
-      </c>
-      <c r="J23" s="8">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="str">
-        <f t="shared" ref="A24:A25" si="1">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/",B24)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/value</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="7">
         <v>12</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="8">
-        <v>5</v>
-      </c>
-      <c r="J24" s="8">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="str">
+      <c r="H28" s="10"/>
+      <c r="I28" s="8">
+        <v>5</v>
+      </c>
+      <c r="J28" s="8">
+        <v>5</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/currency</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="5">
         <v>3</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="8">
-        <v>5</v>
-      </c>
-      <c r="J25" s="8">
-        <v>5</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/price/",B26)</f>
+      <c r="I29" s="8">
+        <v>5</v>
+      </c>
+      <c r="J29" s="8">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/",B30)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/referenceValue</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="34">
+        <v>12</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="29"/>
+      <c r="I30" s="34">
+        <v>1</v>
+      </c>
+      <c r="J30" s="34">
+        <v>1</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/",B31)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/referenceCurrency</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="36">
+        <v>3</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="34">
+        <v>1</v>
+      </c>
+      <c r="J31" s="34">
+        <v>1</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/price/",B32)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/price/types</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="5">
+        <v>30</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="8">
+        <v>5</v>
+      </c>
+      <c r="J32" s="8">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="5">
-        <v>30</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I26" s="8">
-        <v>5</v>
-      </c>
-      <c r="J26" s="8">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="str">
-        <f t="shared" ref="A27:A28" si="2">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/price/",B27)</f>
+    </row>
+    <row r="33" spans="1:18" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="str">
+        <f t="shared" ref="A33:A34" si="2">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/price/",B33)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/price/monthly</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="7">
         <v>12</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="8">
-        <v>5</v>
-      </c>
-      <c r="J27" s="8">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="str">
+      <c r="H33" s="10"/>
+      <c r="I33" s="8">
+        <v>5</v>
+      </c>
+      <c r="J33" s="8">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="str">
         <f t="shared" si="2"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/price/currency</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="D34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="5">
         <v>3</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I28" s="8">
-        <v>5</v>
-      </c>
-      <c r="J28" s="8">
-        <v>5</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/",B29)</f>
+      <c r="I34" s="8">
+        <v>5</v>
+      </c>
+      <c r="J34" s="8">
+        <v>5</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L34" s="5"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/",B35)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/referenceValue</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="34">
+        <v>12</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="29"/>
+      <c r="I35" s="34">
+        <v>1</v>
+      </c>
+      <c r="J35" s="34">
+        <v>1</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/",B36)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/referenceCurrency</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="36">
+        <v>3</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36" s="34">
+        <v>1</v>
+      </c>
+      <c r="J36" s="34">
+        <v>1</v>
+      </c>
+      <c r="K36" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/",B37)</f>
         <v xml:space="preserve">openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/openingClosingChannels </v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="5">
+      <c r="D37" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="5">
         <v>30</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="4" t="s">
+      <c r="F37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I29" s="8">
-        <v>1</v>
-      </c>
-      <c r="J29" s="8">
+      <c r="I37" s="8">
+        <v>1</v>
+      </c>
+      <c r="J37" s="8">
         <v>7</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/",B30)</f>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/",B38)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/additionalInfo</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="D38" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="5">
         <v>100</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="8">
+      <c r="H38" s="4"/>
+      <c r="I38" s="8">
         <v>0</v>
       </c>
-      <c r="J30" s="8">
-        <v>1</v>
-      </c>
-      <c r="K30" s="3" t="s">
+      <c r="J38" s="8">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/",B31)</f>
+    <row r="39" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/",B39)</f>
         <v xml:space="preserve">openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/transactionMethods  </v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="D39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="7">
         <v>30</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="10" t="s">
+      <c r="F39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I31" s="8">
-        <v>1</v>
-      </c>
-      <c r="J31" s="8">
+      <c r="I39" s="8">
+        <v>1</v>
+      </c>
+      <c r="J39" s="8">
         <v>4</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/",B32)</f>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/",B40)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/minimumBalance</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="D40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="5">
         <v>12</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="F40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="8">
-        <v>1</v>
-      </c>
-      <c r="J32" s="8">
-        <v>1</v>
-      </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/",B33)</f>
+      <c r="H40" s="4"/>
+      <c r="I40" s="8">
+        <v>1</v>
+      </c>
+      <c r="J40" s="8">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/",B41)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/minimumBalanceCurrency</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="D41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="7">
         <v>3</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="F41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I33" s="8">
-        <v>1</v>
-      </c>
-      <c r="J33" s="8">
-        <v>1</v>
-      </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/",B34)</f>
+      <c r="I41" s="8">
+        <v>1</v>
+      </c>
+      <c r="J41" s="8">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/",B42)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/elegibilityCriteriaInfo</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="5">
+      <c r="D42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="5">
         <v>1000</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="8">
-        <v>1</v>
-      </c>
-      <c r="J34" s="8">
-        <v>1</v>
-      </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/",B35)</f>
+      <c r="F42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="8">
+        <v>1</v>
+      </c>
+      <c r="J42" s="8">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/",B43)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/closingProcessInfo</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="7">
+      <c r="D43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="7">
         <v>2000</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="8">
-        <v>1</v>
-      </c>
-      <c r="J35" s="8">
-        <v>1</v>
-      </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="str">
-        <f t="shared" ref="A36:A41" si="3">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/",B36)</f>
+      <c r="F43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="8">
+        <v>1</v>
+      </c>
+      <c r="J43" s="8">
+        <v>1</v>
+      </c>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:18" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="str">
+        <f t="shared" ref="A44:A49" si="3">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/",B44)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/rate</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="5">
+      <c r="C44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="5">
         <v>7</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="8">
+      <c r="H44" s="10"/>
+      <c r="I44" s="8">
         <v>0</v>
       </c>
-      <c r="J36" s="8">
-        <v>1</v>
-      </c>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="str">
+      <c r="J44" s="8">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:18" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="str">
         <f t="shared" si="3"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/referencialRate</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="7">
+      <c r="C45" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="7">
         <v>7</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="8">
+      <c r="H45" s="10"/>
+      <c r="I45" s="8">
         <v>0</v>
       </c>
-      <c r="J37" s="8">
-        <v>1</v>
-      </c>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="str">
+      <c r="J45" s="8">
+        <v>1</v>
+      </c>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="str">
         <f t="shared" si="3"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/indexer</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="5">
-        <v>10</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="C46" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="5">
+        <v>10</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="8">
+      <c r="G46" s="2"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="8">
         <v>0</v>
       </c>
-      <c r="J38" s="8">
-        <v>1</v>
-      </c>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="str">
+      <c r="J46" s="8">
+        <v>1</v>
+      </c>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="str">
         <f t="shared" si="3"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/prePostTax</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="7">
+      <c r="D47" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="7">
         <v>3</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="4" t="s">
+      <c r="G47" s="2"/>
+      <c r="H47" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I47" s="8">
         <v>0</v>
       </c>
-      <c r="J39" s="8">
-        <v>1</v>
-      </c>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="str">
+      <c r="J47" s="8">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="str">
         <f t="shared" si="3"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/frequency</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="5">
+      <c r="D48" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="5">
         <v>4</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="15" t="s">
+      <c r="G48" s="2"/>
+      <c r="H48" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I48" s="8">
         <v>0</v>
       </c>
-      <c r="J40" s="8">
-        <v>1</v>
-      </c>
-      <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="str">
+      <c r="J48" s="8">
+        <v>1</v>
+      </c>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="str">
         <f t="shared" si="3"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/additionalinfo</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="7">
+      <c r="D49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="7">
         <v>2000</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="8">
+      <c r="G49" s="2"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="8">
         <v>0</v>
       </c>
-      <c r="J41" s="8">
-        <v>1</v>
-      </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/",B42)</f>
+      <c r="J49" s="8">
+        <v>1</v>
+      </c>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/",B50)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/types</v>
       </c>
-      <c r="B42" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="30" t="s">
+      <c r="B50" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="32">
+        <v>30</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H50" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="I50" s="34">
+        <v>5</v>
+      </c>
+      <c r="J50" s="34">
+        <v>5</v>
+      </c>
+      <c r="K50" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/",B51)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/rate</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="32">
+        <v>7</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" s="35"/>
+      <c r="I51" s="34">
+        <v>5</v>
+      </c>
+      <c r="J51" s="34">
+        <v>5</v>
+      </c>
+      <c r="K51" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/",B52)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/referenceValue</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="32">
-        <v>30</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="H42" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="I42" s="34">
-        <v>5</v>
-      </c>
-      <c r="J42" s="34">
-        <v>5</v>
-      </c>
-      <c r="K42" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/",B43)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/rate</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="32">
-        <v>7</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" s="35"/>
-      <c r="I43" s="34">
-        <v>5</v>
-      </c>
-      <c r="J43" s="34">
-        <v>5</v>
-      </c>
-      <c r="K43" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/",B44)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/referenceValue</v>
-      </c>
-      <c r="B44" s="29" t="s">
+      <c r="D52" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="34">
+        <v>12</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" s="29"/>
+      <c r="I52" s="34">
+        <v>1</v>
+      </c>
+      <c r="J52" s="34">
+        <v>1</v>
+      </c>
+      <c r="K52" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/",B53)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/referenceCurrency</v>
+      </c>
+      <c r="B53" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C53" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="36">
+        <v>3</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="34">
-        <v>12</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H44" s="29"/>
-      <c r="I44" s="34">
-        <v>1</v>
-      </c>
-      <c r="J44" s="34">
-        <v>1</v>
-      </c>
-      <c r="K44" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/",B45)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/referenceCurrency</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="36">
-        <v>3</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H45" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="I45" s="34">
-        <v>1</v>
-      </c>
-      <c r="J45" s="34">
-        <v>1</v>
-      </c>
-      <c r="K45" s="30" t="s">
-        <v>121</v>
+      <c r="I53" s="34">
+        <v>1</v>
+      </c>
+      <c r="J53" s="34">
+        <v>1</v>
+      </c>
+      <c r="K53" s="30" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2876,13 +3156,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B69E19-DBEE-4F4F-B151-FA682E1652F1}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3269,788 +3549,810 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="str">
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/",B12)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/referenceValue</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="34">
+        <v>12</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="34">
+        <v>1</v>
+      </c>
+      <c r="J12" s="34">
+        <v>1</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/",B13)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/referenceCurrency</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="36">
+        <v>3</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="34">
+        <v>1</v>
+      </c>
+      <c r="J13" s="34">
+        <v>1</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/",B14)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/additionalInfo</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5">
         <v>80</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="8">
+      <c r="H14" s="4"/>
+      <c r="I14" s="8">
         <v>0</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/",B13)</f>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/",B15)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/chargingUnit</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5">
         <v>50</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="8">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/",B14)</f>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/",B16)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/name</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5">
         <v>50</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/",B15)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/code</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="5">
-        <v>30</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="9">
-        <v>1</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/",B16)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/eventLimitQuantity</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="5">
-        <v>4</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="10"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="9">
         <v>1</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/",B17)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/freeEventQuantity</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/code</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="7">
-        <v>4</v>
+      <c r="E17" s="5">
+        <v>30</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="10"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I17" s="9">
         <v>1</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/price/",B18)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/price/type</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="21">
-        <v>30</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18" s="8">
-        <v>5</v>
-      </c>
-      <c r="J18" s="8">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="str">
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/",B18)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/eventLimitQuantity</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="9">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/",B19)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/value</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>61</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/freeEventQuantity</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="9">
-        <v>5</v>
-      </c>
-      <c r="J19" s="9">
-        <v>5</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/",B20)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/currency</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="5">
-        <v>3</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="9">
-        <v>5</v>
-      </c>
-      <c r="J20" s="9">
+        <v>1</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/price/",B20)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/price/type</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="21">
+        <v>30</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="8">
+        <v>5</v>
+      </c>
+      <c r="J20" s="8">
         <v>5</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/",B21)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/typesPrice</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/",B21)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/value</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>103</v>
+        <v>61</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="5">
-        <v>30</v>
+      <c r="E21" s="7">
+        <v>12</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="I21" s="8">
-        <v>5</v>
-      </c>
-      <c r="J21" s="8">
+      <c r="G21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="9">
+        <v>5</v>
+      </c>
+      <c r="J21" s="9">
         <v>5</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/",B22)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/monthlyPrice</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>97</v>
+    <row r="22" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/",B22)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/currency</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="7">
-        <v>12</v>
+      <c r="E22" s="5">
+        <v>3</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="8">
-        <v>5</v>
-      </c>
-      <c r="J22" s="8">
+        <v>35</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="9">
+        <v>5</v>
+      </c>
+      <c r="J22" s="9">
         <v>5</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/",B23)</f>
+    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="str">
+        <f t="shared" ref="A23:A24" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/",B23)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/referenceValue</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="34">
+        <v>12</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="34">
+        <v>1</v>
+      </c>
+      <c r="J23" s="34">
+        <v>1</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/referenceCurrency</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="36">
+        <v>3</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" s="34">
+        <v>1</v>
+      </c>
+      <c r="J24" s="34">
+        <v>1</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/",B25)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/typesPrice</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="5">
+        <v>30</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="8">
+        <v>5</v>
+      </c>
+      <c r="J25" s="8">
+        <v>5</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/",B26)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/monthlyPrice</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="7">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="8">
+        <v>5</v>
+      </c>
+      <c r="J26" s="8">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/",B27)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/currency</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C27" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5">
         <v>3</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="8">
-        <v>5</v>
-      </c>
-      <c r="J23" s="8">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3" t="s">
+      <c r="I27" s="8">
+        <v>5</v>
+      </c>
+      <c r="J27" s="8">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/",B24)</f>
+    <row r="28" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="str">
+        <f t="shared" ref="A28:A29" si="1">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/",B28)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/referenceValue</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="34">
+        <v>12</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="34">
+        <v>1</v>
+      </c>
+      <c r="J28" s="34">
+        <v>1</v>
+      </c>
+      <c r="K28" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/referenceCurrency</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="36">
+        <v>3</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" s="34">
+        <v>1</v>
+      </c>
+      <c r="J29" s="34">
+        <v>1</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/",B30)</f>
         <v xml:space="preserve">openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/openingClosingChannels </v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="D30" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="5">
         <v>30</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="4" t="s">
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="8">
-        <v>1</v>
-      </c>
-      <c r="J24" s="8">
+      <c r="I30" s="8">
+        <v>1</v>
+      </c>
+      <c r="J30" s="8">
         <v>7</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/",B25)</f>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/",B31)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/additionalInfo</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="D31" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5">
         <v>100</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="8">
-        <v>0</v>
-      </c>
-      <c r="J25" s="8">
-        <v>1</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/",B26)</f>
-        <v xml:space="preserve">openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/transactionMethods  </v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="7">
-        <v>30</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="8">
-        <v>1</v>
-      </c>
-      <c r="J26" s="8">
-        <v>4</v>
-      </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/",B27)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/minimumBalance</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="5">
-        <v>12</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="8">
-        <v>1</v>
-      </c>
-      <c r="J27" s="8">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/",B28)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/minimumBalanceCurrency</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="7">
-        <v>3</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="8">
-        <v>1</v>
-      </c>
-      <c r="J28" s="8">
-        <v>1</v>
-      </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/",B29)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/elegibilityCriteriaInfo</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="8">
-        <v>1</v>
-      </c>
-      <c r="J29" s="8">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/",B30)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/closingProcessInfo</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="7">
-        <v>2000</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="8">
-        <v>1</v>
-      </c>
-      <c r="J30" s="8">
-        <v>1</v>
-      </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="str">
-        <f t="shared" ref="A31:A36" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/",B31)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/rate</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="5">
-        <v>7</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="10"/>
+      <c r="G31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="4"/>
       <c r="I31" s="8">
         <v>0</v>
       </c>
       <c r="J31" s="8">
         <v>1</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="K31" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/referencialRate</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/",B32)</f>
+        <v xml:space="preserve">openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/transactionMethods  </v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="I32" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/indexer</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/",B33)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/minimumBalance</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="5">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="4"/>
       <c r="I33" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="8">
         <v>1</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/prePostTax</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/",B34)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/minimumBalanceCurrency</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="7">
         <v>3</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="H34" s="4" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I34" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="8">
         <v>1</v>
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/frequency</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/",B35)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/elegibilityCriteriaInfo</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="5">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="15" t="s">
-        <v>69</v>
-      </c>
+      <c r="H35" s="4"/>
       <c r="I35" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="8">
         <v>1</v>
@@ -4059,14 +4361,14 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/additionalinfo</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/",B36)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/closingProcessInfo</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>10</v>
@@ -4075,156 +4377,344 @@
         <v>2000</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="8">
+        <v>1</v>
+      </c>
+      <c r="J36" s="8">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="str">
+        <f t="shared" ref="A37:A42" si="2">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/",B37)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/rate</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="5">
+        <v>7</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="8">
+      <c r="G37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="8">
         <v>0</v>
       </c>
-      <c r="J36" s="8">
-        <v>1</v>
-      </c>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/application/",B37)</f>
+      <c r="J37" s="8">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/referencialRate</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="7">
+        <v>7</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="8">
+        <v>0</v>
+      </c>
+      <c r="J38" s="8">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/indexer</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="5">
+        <v>30</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="8">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/prePostTax</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="7">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0</v>
+      </c>
+      <c r="J40" s="8">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/frequency</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="5">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/additionalinfo</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="8">
+        <v>0</v>
+      </c>
+      <c r="J42" s="8">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/application/",B43)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/application/types</v>
       </c>
-      <c r="B37" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="30" t="s">
+      <c r="B43" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="34">
+        <v>30</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I43" s="34">
+        <v>5</v>
+      </c>
+      <c r="J43" s="34">
+        <v>5</v>
+      </c>
+      <c r="K43" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/application/",B44)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/application/rate</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="34">
+        <v>7</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="35"/>
+      <c r="I44" s="34">
+        <v>5</v>
+      </c>
+      <c r="J44" s="34">
+        <v>5</v>
+      </c>
+      <c r="K44" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/",B45)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/referenceValue</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="34">
-        <v>30</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="H37" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="I37" s="34">
-        <v>5</v>
-      </c>
-      <c r="J37" s="34">
-        <v>5</v>
-      </c>
-      <c r="K37" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/application/",B38)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/application/rate</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="34">
-        <v>7</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="35"/>
-      <c r="I38" s="34">
-        <v>5</v>
-      </c>
-      <c r="J38" s="34">
-        <v>5</v>
-      </c>
-      <c r="K38" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/",B39)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/referenceValue</v>
-      </c>
-      <c r="B39" s="29" t="s">
+      <c r="D45" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="34">
+        <v>12</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" s="29"/>
+      <c r="I45" s="34">
+        <v>1</v>
+      </c>
+      <c r="J45" s="34">
+        <v>1</v>
+      </c>
+      <c r="K45" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/",B46)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/referenceCurrency</v>
+      </c>
+      <c r="B46" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C46" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="36">
+        <v>3</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="34">
-        <v>12</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H39" s="29"/>
-      <c r="I39" s="34">
-        <v>1</v>
-      </c>
-      <c r="J39" s="34">
-        <v>1</v>
-      </c>
-      <c r="K39" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/",B40)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/referenceCurrency</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="36">
-        <v>3</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H40" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="I40" s="34">
-        <v>1</v>
-      </c>
-      <c r="J40" s="34">
-        <v>1</v>
-      </c>
-      <c r="K40" s="30" t="s">
-        <v>121</v>
+      <c r="I46" s="34">
+        <v>1</v>
+      </c>
+      <c r="J46" s="34">
+        <v>1</v>
+      </c>
+      <c r="K46" s="30" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/DicionarioDeDados-Contas.xlsx
+++ b/DicionarioDeDados-Contas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSDS\Documents\GitHub\Open-Banking-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A111A7BE-679B-4939-9861-09C2538F1A0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B672B15-A6ED-4960-B939-69525D2E451B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ContaCorrentePF" sheetId="6" r:id="rId1"/>
@@ -1342,17 +1342,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="93.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="63.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="8" customWidth="1"/>
@@ -2238,7 +2238,7 @@
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="str">
+      <c r="A27" s="20" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/",B27)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/types</v>
       </c>
@@ -2274,7 +2274,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="str">
+      <c r="A28" s="20" t="str">
         <f t="shared" ref="A28:A29" si="1">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/",B28)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/value</v>
       </c>
@@ -2308,7 +2308,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="str">
+      <c r="A29" s="20" t="str">
         <f t="shared" si="1"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/currency</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/",B30)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/referenceValue</v>
@@ -2526,7 +2526,7 @@
       <c r="Q34" s="9"/>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/",B35)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/referenceValue</v>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/",B43)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/closingProcessInfo</v>
@@ -3158,16 +3158,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B69E19-DBEE-4F4F-B151-FA682E1652F1}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:XFD24"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="94.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="91.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="80" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
@@ -3851,8 +3851,8 @@
     </row>
     <row r="21" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/",B21)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/value</v>
+        <f t="shared" ref="A21:A22" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/price/",B21)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/price/value</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>61</v>
@@ -3884,9 +3884,9 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/",B22)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/currency</v>
+      <c r="A22" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/price/currency</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>22</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="str">
-        <f t="shared" ref="A23:A24" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/",B23)</f>
+        <f t="shared" ref="A23:A24" si="1">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/",B23)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/referenceValue</v>
       </c>
       <c r="B23" s="30" t="s">
@@ -3955,7 +3955,7 @@
     </row>
     <row r="24" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/referenceCurrency</v>
       </c>
       <c r="B24" s="30" t="s">
@@ -3991,8 +3991,8 @@
     </row>
     <row r="25" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/",B25)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/typesPrice</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/price/",B25)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/price/typesPrice</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>98</v>
@@ -4027,8 +4027,8 @@
     </row>
     <row r="26" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/",B26)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/monthlyPrice</v>
+        <f t="shared" ref="A26:A27" si="2">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/price/",B26)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/price/monthlyPrice</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>92</v>
@@ -4061,8 +4061,8 @@
     </row>
     <row r="27" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/",B27)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/currency</v>
+        <f t="shared" si="2"/>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/price/currency</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>22</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="28" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="str">
-        <f t="shared" ref="A28:A29" si="1">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/",B28)</f>
+        <f t="shared" ref="A28:A29" si="3">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/",B28)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/referenceValue</v>
       </c>
       <c r="B28" s="30" t="s">
@@ -4131,7 +4131,7 @@
     </row>
     <row r="29" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/referenceCurrency</v>
       </c>
       <c r="B29" s="30" t="s">
@@ -4391,7 +4391,7 @@
     </row>
     <row r="37" spans="1:11" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="str">
-        <f t="shared" ref="A37:A42" si="2">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/",B37)</f>
+        <f t="shared" ref="A37:A42" si="4">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/",B37)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/rate</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -4423,7 +4423,7 @@
     </row>
     <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/referencialRate</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -4455,7 +4455,7 @@
     </row>
     <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/indexer</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -4485,7 +4485,7 @@
     </row>
     <row r="40" spans="1:11" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/prePostTax</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -4517,7 +4517,7 @@
     </row>
     <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/frequency</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -4549,7 +4549,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/additionalinfo</v>
       </c>
       <c r="B42" s="3" t="s">

--- a/DicionarioDeDados-Contas.xlsx
+++ b/DicionarioDeDados-Contas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erdxbpo\Documents\_AD\OpenBankingData\Febraban\DataOwner\ReviewDOs\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erdxbpo\OneDrive - Banco Itaú SA\Documentos\AD\OpenBankingData\Febraban\DataOwner\DicionáriosOficiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E20E4C6-DF8A-49C5-AE2B-DB5E2448CFCE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{9E20E4C6-DF8A-49C5-AE2B-DB5E2448CFCE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{78808D7E-0308-4861-B407-264B843A0CFC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="ContaCorrentePJ" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ContaCorrentePF!$A$1:$R$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ContaCorrentePF!$A$1:$R$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ContaCorrentePJ!$A$1:$L$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="126">
   <si>
     <t>Xpath</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>^(\W{3}){1}$</t>
-  </si>
-  <si>
-    <t>Números de 0 a 9 sem formatação</t>
   </si>
   <si>
     <t>N</t>
@@ -823,6 +820,13 @@
     <t>Valor médio da tarifa cobrada referente aos Outros Serviços. p.ex.'45.00'
 (representa um valor monetário. Ex: 1547368.92 (O valor ao lado, considerando que a moeda seja BRL, significa R$ 1.547.368,92). O único separador presente deverá ser o . (ponto) para casa decimal. Não deve haver separador de milhar)</t>
   </si>
+  <si>
+    <t>Nomes dos Serviços prioritários, segundo Resolução 3.919 do Bacen, para pessoa física. (Campo Livre). p.ex. 'Fornecimento de extrato de um período de conta de depósitos à vista e de poupança'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatores geradores de cobrança que incidem sobre os serviços prioritários, segundo Resolução 3.919 do Bacen, para pessoa física. P. ex. 'Fornecimento de extrato com a movimentação de um período em guichê de caixa ou por outras formas de atendimento pessoal, tal como atendimento telefônico realizado por atendente.'
+</t>
+  </si>
 </sst>
 </file>
 
@@ -865,24 +869,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -940,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1038,50 +1030,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1368,7 +1330,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1424,7 +1386,7 @@
       <c r="J1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="20" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="19"/>
@@ -1438,7 +1400,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>10</v>
@@ -1473,7 +1435,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>10</v>
@@ -1507,7 +1469,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>10</v>
@@ -1521,9 +1483,7 @@
       <c r="G4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="H4" s="22"/>
       <c r="I4" s="25">
         <v>1</v>
       </c>
@@ -1543,7 +1503,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>10</v>
@@ -1556,7 +1516,7 @@
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I5" s="25">
         <v>1</v>
@@ -1567,286 +1527,291 @@
       <c r="K5" s="22"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="206.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/",B6)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/code</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>20</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/name</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22" t="s">
-        <v>37</v>
-      </c>
+      <c r="G6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="22"/>
       <c r="I6" s="25">
         <v>23</v>
       </c>
       <c r="J6" s="25">
         <v>23</v>
       </c>
-      <c r="K6" s="26"/>
-    </row>
-    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/price/",B7)</f>
+      <c r="K6" s="22"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" ht="206.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/",B7)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/code</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="28">
+        <v>40</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="25">
+        <v>23</v>
+      </c>
+      <c r="J7" s="25">
+        <v>23</v>
+      </c>
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" spans="1:12" ht="206.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/",B8)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/chargingTriggerInfo</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="28">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="25">
+        <v>23</v>
+      </c>
+      <c r="J8" s="25">
+        <v>23</v>
+      </c>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/price/",B9)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/price/interval</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="B9" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="23">
         <v>30</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="29" t="s">
+      <c r="F9" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="25">
+        <v>4</v>
+      </c>
+      <c r="J9" s="25">
+        <v>4</v>
+      </c>
+      <c r="K9" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="25">
-        <v>4</v>
-      </c>
-      <c r="J7" s="25">
-        <v>4</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="str">
-        <f t="shared" ref="A8:A10" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/price/",B8)</f>
+    </row>
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="str">
+        <f t="shared" ref="A10:A12" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/price/",B10)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/price/value</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="B10" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="23">
         <v>12</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25">
-        <v>4</v>
-      </c>
-      <c r="J8" s="25">
-        <v>4</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="str">
+      <c r="F10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25">
+        <v>4</v>
+      </c>
+      <c r="J10" s="25">
+        <v>4</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/price/currency</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="C11" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="23">
         <v>3</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="24" t="s">
+      <c r="F11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="25">
-        <v>4</v>
-      </c>
-      <c r="J9" s="25">
-        <v>4</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="str">
+      <c r="I11" s="25">
+        <v>4</v>
+      </c>
+      <c r="J11" s="25">
+        <v>4</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/price/frequency</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="C12" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="23">
         <v>7</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="25">
-        <v>4</v>
-      </c>
-      <c r="J10" s="25">
-        <v>4</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/",B11)</f>
+      <c r="F12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25">
+        <v>4</v>
+      </c>
+      <c r="J12" s="25">
+        <v>4</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/",B13)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/chargingUnit</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="B13" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="23">
         <v>50</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="24" t="s">
+      <c r="F13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="25">
+      <c r="H13" s="26"/>
+      <c r="I13" s="25">
         <v>23</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J13" s="25">
         <v>23</v>
       </c>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/",B12)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/name</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="23">
-        <v>50</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="25">
-        <v>0</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/",B13)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/code</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="23">
-        <v>30</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="25">
-        <v>0</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>36</v>
-      </c>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/",B14)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/chargingTriggerInfo</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>59</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/name</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="23">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>15</v>
@@ -1857,20 +1822,20 @@
         <v>0</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/",B15)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/interval</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>116</v>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/",B15)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/code</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>10</v>
@@ -1879,654 +1844,650 @@
         <v>30</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="25">
+        <v>0</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/",B16)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/chargingTriggerInfo</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="23">
+        <v>500</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="25">
+        <v>0</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="22"/>
+    </row>
+    <row r="17" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/",B17)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/interval</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="23">
+        <v>30</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="25">
+        <v>4</v>
+      </c>
+      <c r="J17" s="25">
+        <v>4</v>
+      </c>
+      <c r="K17" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="25">
-        <v>4</v>
-      </c>
-      <c r="J15" s="25">
-        <v>4</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/",B16)</f>
+    </row>
+    <row r="18" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/",B18)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/value</v>
       </c>
-      <c r="B16" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="B18" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="23">
         <v>12</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25">
-        <v>4</v>
-      </c>
-      <c r="J16" s="25">
-        <v>4</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/",B17)</f>
+      <c r="F18" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25">
+        <v>4</v>
+      </c>
+      <c r="J18" s="25">
+        <v>4</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/",B19)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/currency</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="23">
+      <c r="C19" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="23">
         <v>3</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="24" t="s">
+      <c r="F19" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H19" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="25">
-        <v>4</v>
-      </c>
-      <c r="J17" s="25">
-        <v>4</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/",B18)</f>
+      <c r="I19" s="25">
+        <v>4</v>
+      </c>
+      <c r="J19" s="25">
+        <v>4</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/",B20)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/frequency</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="23">
+      <c r="C20" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="23">
         <v>7</v>
       </c>
-      <c r="F18" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="25">
-        <v>4</v>
-      </c>
-      <c r="J18" s="25">
-        <v>4</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/",B19)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/additionalInfo</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="23">
-        <v>80</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="25">
-        <v>0</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/",B20)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/chargingUnit</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="23">
-        <v>50</v>
-      </c>
       <c r="F20" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="25">
-        <v>1</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="J20" s="25">
+        <v>4</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/",B21)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/name</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>45</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/",B21)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/additionalInfo</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>65</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="23">
+        <v>80</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="26"/>
+      <c r="I21" s="25">
+        <v>0</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/",B22)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/chargingUnit</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="23">
         <v>50</v>
       </c>
-      <c r="F21" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="30">
-        <v>1</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/",B22)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/code</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="23">
-        <v>30</v>
-      </c>
       <c r="F22" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="30">
-        <v>1</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" s="20"/>
+      <c r="G22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="25">
+        <v>1</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/",B23)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/eventLimitQuantity</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>22</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/",B23)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/name</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>17</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="23">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="31"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="30">
         <v>1</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/",B24)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/code</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="23">
+        <v>30</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="30">
+        <v>1</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/",B25)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/eventLimitQuantity</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="23">
+        <v>4</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="31"/>
+      <c r="I25" s="30">
+        <v>1</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="22"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/",B26)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/freeEventQuantity</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B26" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="32">
-        <v>4</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="30">
-        <v>1</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="str">
-        <f t="shared" ref="A25:A26" si="1">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/",B25)</f>
+      <c r="C26" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="32">
+        <v>4</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="31"/>
+      <c r="I26" s="30">
+        <v>1</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="22"/>
+    </row>
+    <row r="27" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="str">
+        <f t="shared" ref="A27:A28" si="1">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/",B27)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/value</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="32">
+      <c r="B27" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="32">
         <v>12</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="25">
-        <v>1</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="str">
+      <c r="F27" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="31"/>
+      <c r="I27" s="25">
+        <v>1</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="str">
         <f t="shared" si="1"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/currency</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B28" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="23">
+      <c r="C28" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="23">
         <v>3</v>
       </c>
-      <c r="F26" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="24" t="s">
+      <c r="F28" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H28" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="25">
-        <v>1</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="str">
-        <f t="shared" ref="A27:A28" si="2">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/price/",B27)</f>
+      <c r="I28" s="25">
+        <v>1</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="str">
+        <f t="shared" ref="A29:A30" si="2">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/price/",B29)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/price/monthlyFee</v>
       </c>
-      <c r="B27" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="37" t="s">
+      <c r="B29" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="32">
+        <v>12</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="31"/>
+      <c r="I29" s="25">
+        <v>1</v>
+      </c>
+      <c r="J29" s="25">
+        <v>1</v>
+      </c>
+      <c r="K29" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="32">
-        <v>12</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="25">
-        <v>1</v>
-      </c>
-      <c r="J27" s="25">
-        <v>1</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="str">
+    </row>
+    <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="str">
         <f t="shared" si="2"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/price/currency</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B30" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="23">
+      <c r="C30" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="23">
         <v>3</v>
       </c>
-      <c r="F28" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="24" t="s">
+      <c r="F30" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H30" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="25">
-        <v>1</v>
-      </c>
-      <c r="J28" s="25">
-        <v>1</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="1:18" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/",B29)</f>
-        <v xml:space="preserve">openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/openingClosingChannels </v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="23">
-        <v>30</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="I29" s="25">
-        <v>1</v>
-      </c>
-      <c r="J29" s="25">
-        <v>7</v>
-      </c>
-      <c r="K29" s="22"/>
-    </row>
-    <row r="30" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/",B30)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/additionalInfo</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="23">
-        <v>100</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="26"/>
       <c r="I30" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="25">
         <v>1</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/",B31)</f>
-        <v xml:space="preserve">openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/transactionMethods  </v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>48</v>
+        <v xml:space="preserve">openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/openingClosingChannels </v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="23">
         <v>30</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="24"/>
-      <c r="H31" s="31" t="s">
-        <v>73</v>
+      <c r="H31" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="I31" s="25">
         <v>1</v>
       </c>
       <c r="J31" s="25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/",B32)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/minimumBalance</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/",B32)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/additionalInfo</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="23">
+        <v>100</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="24" t="s">
         <v>12</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>67</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="25">
         <v>1</v>
       </c>
-      <c r="K32" s="22"/>
-    </row>
-    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K32" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/",B33)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/minimumBalanceCurrency</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>25</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/",B33)</f>
+        <v xml:space="preserve">openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/transactionMethods  </v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="32">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>33</v>
+      <c r="G33" s="24"/>
+      <c r="H33" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="I33" s="25">
         <v>1</v>
       </c>
       <c r="J33" s="25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K33" s="22"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/",B34)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/elegibilityCriteriaInfo</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>26</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/minimumBalance</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="23">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="24"/>
+      <c r="G34" s="24" t="s">
+        <v>66</v>
+      </c>
       <c r="H34" s="26"/>
       <c r="I34" s="25">
         <v>1</v>
@@ -2536,121 +2497,123 @@
       </c>
       <c r="K34" s="22"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/",B35)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/minimumBalanceCurrency</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="32">
+        <v>3</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="25">
+        <v>1</v>
+      </c>
+      <c r="J35" s="25">
+        <v>1</v>
+      </c>
+      <c r="K35" s="22"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/",B36)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/elegibilityCriteriaInfo</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="23">
+        <v>1000</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="24"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="25">
+        <v>1</v>
+      </c>
+      <c r="J36" s="25">
+        <v>1</v>
+      </c>
+      <c r="K36" s="22"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/",B37)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/closingProcessInfo</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B37" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="32">
+      <c r="C37" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="32">
         <v>2000</v>
       </c>
-      <c r="F35" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="25">
-        <v>1</v>
-      </c>
-      <c r="J35" s="25">
-        <v>1</v>
-      </c>
-      <c r="K35" s="22"/>
-    </row>
-    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="str">
-        <f t="shared" ref="A36:A41" si="3">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/",B36)</f>
+      <c r="F37" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="24"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="25">
+        <v>1</v>
+      </c>
+      <c r="J37" s="25">
+        <v>1</v>
+      </c>
+      <c r="K37" s="22"/>
+    </row>
+    <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="str">
+        <f t="shared" ref="A38:A43" si="3">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/",B38)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/rate</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="23">
+      <c r="B38" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="23">
         <v>7</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="31"/>
-      <c r="I36" s="25">
-        <v>0</v>
-      </c>
-      <c r="J36" s="25">
-        <v>1</v>
-      </c>
-      <c r="K36" s="22"/>
-    </row>
-    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/referencialRate</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="32">
-        <v>7</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="31"/>
-      <c r="I37" s="25">
-        <v>0</v>
-      </c>
-      <c r="J37" s="25">
-        <v>1</v>
-      </c>
-      <c r="K37" s="22"/>
-    </row>
-    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/indexer</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="23">
-        <v>10</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="24"/>
+      <c r="G38" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="H38" s="31"/>
       <c r="I38" s="25">
         <v>0</v>
@@ -2660,30 +2623,30 @@
       </c>
       <c r="K38" s="22"/>
     </row>
-    <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/prePostTax</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>30</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/referencialRate</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="24"/>
-      <c r="H39" s="26" t="s">
-        <v>74</v>
-      </c>
+      <c r="G39" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="31"/>
       <c r="I39" s="25">
         <v>0</v>
       </c>
@@ -2692,30 +2655,28 @@
       </c>
       <c r="K39" s="22"/>
     </row>
-    <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/occurrence</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>113</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/indexer</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="D40" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="23">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="24"/>
-      <c r="H40" s="29" t="s">
-        <v>68</v>
-      </c>
+      <c r="H40" s="31"/>
       <c r="I40" s="25">
         <v>0</v>
       </c>
@@ -2724,28 +2685,30 @@
       </c>
       <c r="K40" s="22"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/additionalinfo</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/prePostTax</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="32">
-        <v>2000</v>
+        <v>3</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="24"/>
-      <c r="H41" s="31"/>
+      <c r="H41" s="26" t="s">
+        <v>73</v>
+      </c>
       <c r="I41" s="25">
         <v>0</v>
       </c>
@@ -2754,112 +2717,174 @@
       </c>
       <c r="K41" s="22"/>
     </row>
-    <row r="42" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/",B42)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/interval</v>
-      </c>
-      <c r="B42" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="21" t="s">
+    <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/occurrence</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E42" s="23">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>95</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G42" s="24"/>
       <c r="H42" s="29" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="I42" s="25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" s="25">
-        <v>4</v>
-      </c>
-      <c r="K42" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="40" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/",B43)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/rate</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>123</v>
+        <v>1</v>
+      </c>
+      <c r="K42" s="22"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/additionalinfo</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="D43" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="23">
-        <v>7</v>
+      <c r="E43" s="32">
+        <v>2000</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>39</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G43" s="24"/>
       <c r="H43" s="31"/>
       <c r="I43" s="25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J43" s="25">
-        <v>4</v>
-      </c>
-      <c r="K43" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="str">
+        <v>1</v>
+      </c>
+      <c r="K43" s="22"/>
+    </row>
+    <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/",B44)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/interval</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="23">
+        <v>30</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I44" s="25">
+        <v>4</v>
+      </c>
+      <c r="J44" s="25">
+        <v>4</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="35" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/",B45)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/rate</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="23">
+        <v>7</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="31"/>
+      <c r="I45" s="25">
+        <v>4</v>
+      </c>
+      <c r="J45" s="25">
+        <v>4</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/",B46)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/frequency</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B46" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="23">
+      <c r="C46" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="23">
         <v>7</v>
       </c>
-      <c r="F44" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" s="26"/>
-      <c r="I44" s="25">
-        <v>4</v>
-      </c>
-      <c r="J44" s="25">
-        <v>4</v>
-      </c>
-      <c r="K44" s="22" t="s">
-        <v>111</v>
+      <c r="F46" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="26"/>
+      <c r="I46" s="25">
+        <v>4</v>
+      </c>
+      <c r="J46" s="25">
+        <v>4</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R44" xr:uid="{FD00D53E-BE4E-423B-81D4-E665F0E18ADD}"/>
+  <autoFilter ref="A1:R46" xr:uid="{FD00D53E-BE4E-423B-81D4-E665F0E18ADD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2893,37 +2918,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="37" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="11"/>
@@ -2937,7 +2962,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -2972,7 +2997,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -3006,7 +3031,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -3020,9 +3045,7 @@
       <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="H4" s="3"/>
       <c r="I4" s="8">
         <v>1</v>
       </c>
@@ -3042,7 +3065,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>10</v>
@@ -3055,7 +3078,7 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" s="8">
         <v>1</v>
@@ -3075,7 +3098,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -3092,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6" s="3"/>
     </row>
@@ -3105,7 +3128,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -3122,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="3"/>
     </row>
@@ -3132,10 +3155,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/chargingTriggerInfo</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -3152,20 +3175,20 @@
         <v>0</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="str">
+      <c r="A9" s="1" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/price/",B9)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/price/interval</v>
       </c>
-      <c r="B9" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>120</v>
+      <c r="B9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>10</v>
@@ -3178,7 +3201,7 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I9" s="8">
         <v>4</v>
@@ -3187,19 +3210,19 @@
         <v>4</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="str">
+      <c r="A10" s="1" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/price/",B10)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/price/value</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>124</v>
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -3211,7 +3234,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="8">
@@ -3221,19 +3244,19 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="str">
+      <c r="A11" s="1" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/price/",B11)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/price/currency</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>51</v>
+      <c r="C11" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
@@ -3257,19 +3280,19 @@
         <v>4</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="str">
+      <c r="A12" s="1" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/price/",B12)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/price/frequency</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>114</v>
+      <c r="C12" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
@@ -3281,7 +3304,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="8">
@@ -3291,7 +3314,7 @@
         <v>4</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3300,10 +3323,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/additionalInfo</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
@@ -3322,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3334,10 +3357,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/chargingUnit</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
@@ -3356,10 +3379,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3371,7 +3394,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
@@ -3388,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="6"/>
     </row>
@@ -3401,7 +3424,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
@@ -3414,13 +3437,13 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I16" s="9">
         <v>1</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K16" s="6"/>
     </row>
@@ -3433,7 +3456,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
@@ -3445,14 +3468,14 @@
         <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="9">
         <v>1</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -3465,7 +3488,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>10</v>
@@ -3477,14 +3500,14 @@
         <v>11</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="9">
         <v>1</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -3494,10 +3517,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/price/value</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
@@ -3509,7 +3532,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="9">
@@ -3519,7 +3542,7 @@
         <v>4</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3531,7 +3554,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>10</v>
@@ -3555,19 +3578,19 @@
         <v>4</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="str">
+      <c r="A21" s="1" t="str">
         <f t="shared" ref="A21:A22" si="1">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/price/",B21)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/price/monthlyFee</v>
       </c>
-      <c r="B21" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>94</v>
+      <c r="B21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
@@ -3579,7 +3602,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="8">
@@ -3589,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3601,7 +3624,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
@@ -3625,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -3634,10 +3657,10 @@
         <v xml:space="preserve">openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/openingClosingChannels </v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>10</v>
@@ -3650,7 +3673,7 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I23" s="8">
         <v>1</v>
@@ -3666,10 +3689,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/additionalInfo</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>10</v>
@@ -3691,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3700,10 +3723,10 @@
         <v xml:space="preserve">openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/transactionMethods  </v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>10</v>
@@ -3716,7 +3739,7 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I25" s="8">
         <v>1</v>
@@ -3735,7 +3758,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>10</v>
@@ -3747,7 +3770,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="8">
@@ -3767,7 +3790,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>10</v>
@@ -3801,7 +3824,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>10</v>
@@ -3831,7 +3854,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>10</v>
@@ -3858,10 +3881,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/rate</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>10</v>
@@ -3873,7 +3896,7 @@
         <v>15</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="8">
@@ -3893,7 +3916,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>10</v>
@@ -3905,7 +3928,7 @@
         <v>15</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="8">
@@ -3925,7 +3948,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>10</v>
@@ -3955,7 +3978,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>10</v>
@@ -3968,7 +3991,7 @@
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I33" s="8">
         <v>0</v>
@@ -3984,10 +4007,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/occurrence</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>10</v>
@@ -4000,7 +4023,7 @@
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I34" s="8">
         <v>0</v>
@@ -4016,7 +4039,7 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/additionalinfo</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>14</v>
@@ -4041,15 +4064,15 @@
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="str">
+      <c r="A36" s="2" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/application/",B36)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/application/interval</v>
       </c>
-      <c r="B36" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>118</v>
+      <c r="B36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>10</v>
@@ -4061,10 +4084,10 @@
         <v>11</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I36" s="8">
         <v>4</v>
@@ -4073,19 +4096,19 @@
         <v>4</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="str">
+      <c r="A37" s="2" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/application/",B37)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/application/rate</v>
       </c>
-      <c r="B37" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>123</v>
+      <c r="B37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>10</v>
@@ -4097,7 +4120,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="8">
@@ -4107,19 +4130,19 @@
         <v>4</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="str">
+      <c r="A38" s="2" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/application/",B38)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/application/frequency</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="45" t="s">
-        <v>114</v>
+      <c r="C38" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>10</v>
@@ -4131,7 +4154,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="8">
@@ -4141,7 +4164,7 @@
         <v>4</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/DicionarioDeDados-Contas.xlsx
+++ b/DicionarioDeDados-Contas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erdxbpo\OneDrive - Banco Itaú SA\Documentos\AD\OpenBankingData\Febraban\DataOwner\DicionáriosOficiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{9E20E4C6-DF8A-49C5-AE2B-DB5E2448CFCE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{78808D7E-0308-4861-B407-264B843A0CFC}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{9E20E4C6-DF8A-49C5-AE2B-DB5E2448CFCE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{3B7B1390-918D-4E1C-A239-7D7222008A4E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -768,13 +768,6 @@
 Ex: 0.15 (O valor ao lado representa 15%. O valor 1 representa 100%))</t>
   </si>
   <si>
-    <t>mínimo'
-'1ª faixa de clientes'
-'2ª faixa de clientes'
-'3ª faixa de clientes'
-'4ª faixa de clientes'</t>
-  </si>
-  <si>
     <t>Este campo deve estar obrigatoriamente preenchido, para cada umas das 23 ocorrências de tarifas de serviços prioritários</t>
   </si>
   <si>
@@ -790,19 +783,7 @@
     <t>interval</t>
   </si>
   <si>
-    <t>Faixas de valor referente a tarifa de outros serviços informado: mínimo, 1ª faixa de clientes, 2ª faixa de clientes, 3ª faixa de clientes e 4ª faixa de clientes</t>
-  </si>
-  <si>
-    <t>Faixas de valor referente a tarifa do serviço prioritário informado: mínimo, 1ª faixa de clientes, 2ª faixa de clientes, 3ª faixa de clientes e 4ª faixa de clientes</t>
-  </si>
-  <si>
-    <t>Faixas do percentual de taxa de remuneração efetivamente aplicada no intervalo informado: mínimo, 1ª faixa de clientes, 2ª faixa de clientes, 3ª faixa de clientes e 4ª faixa de clientes</t>
-  </si>
-  <si>
     <t>monthlyFee</t>
-  </si>
-  <si>
-    <t>Faixas de valor referente a tarifa informado: mínimo, 1ª faixa de clientes, 2ª faixa de clientes, 3ª faixa de clientes e 4ª faixa de clientes</t>
   </si>
   <si>
     <t>Valor médio da tarifa cobrada, relativa ao serviço prioritário, para o tipo de faixa informada. p.ex. 45.00
@@ -826,6 +807,25 @@
   <si>
     <t xml:space="preserve">Fatores geradores de cobrança que incidem sobre os serviços prioritários, segundo Resolução 3.919 do Bacen, para pessoa física. P. ex. 'Fornecimento de extrato com a movimentação de um período em guichê de caixa ou por outras formas de atendimento pessoal, tal como atendimento telefônico realizado por atendente.'
 </t>
+  </si>
+  <si>
+    <t>Faixas de valor referente a tarifa do serviço prioritário informado: mínimo, 1ª faixa de valores, 2ª faixa de valores, 3ª faixa de valores e 4ª faixa de valores</t>
+  </si>
+  <si>
+    <t>mínimo'
+'1ª faixa de valores'
+'2ª faixa de valores'
+'3ª faixa de valores'
+'4ª faixa de valores'</t>
+  </si>
+  <si>
+    <t>Faixas de valor referente a tarifa de outros serviços informado: mínimo, 1ª faixa de valores, 2ª faixa de valores, 3ª faixa de valores e 4ª faixa de valores</t>
+  </si>
+  <si>
+    <t>Faixas do percentual de taxa de remuneração efetivamente aplicada no intervalo informado: mínimo, 1ª faixa de valores, 2ª faixa de valores, 3ª faixa de valores e 4ª faixa de valores</t>
+  </si>
+  <si>
+    <t>Faixas de valor referente a tarifa informado: mínimo, 1ª faixa de valores, 2ª faixa de valores, 3ª faixa de valores e 4ª faixa de valores</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1536,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>10</v>
@@ -1601,7 +1601,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>10</v>
@@ -1630,10 +1630,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/price/interval</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>10</v>
@@ -1648,16 +1648,16 @@
         <v>94</v>
       </c>
       <c r="H9" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="25">
+        <v>4</v>
+      </c>
+      <c r="J9" s="25">
+        <v>4</v>
+      </c>
+      <c r="K9" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="I9" s="25">
-        <v>4</v>
-      </c>
-      <c r="J9" s="25">
-        <v>4</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
         <v>59</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>10</v>
@@ -1691,7 +1691,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -1727,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -1739,7 +1739,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>10</v>
@@ -1761,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1892,10 +1892,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/interval</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>10</v>
@@ -1910,7 +1910,7 @@
         <v>94</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="I17" s="25">
         <v>4</v>
@@ -1931,7 +1931,7 @@
         <v>59</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>10</v>
@@ -2001,7 +2001,7 @@
         <v>31</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>10</v>
@@ -2023,7 +2023,7 @@
         <v>4</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/price/monthlyFee</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>103</v>
@@ -2723,10 +2723,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/occurrence</v>
       </c>
       <c r="B42" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="26" t="s">
         <v>111</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>112</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>10</v>
@@ -2785,10 +2785,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/interval</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D44" s="21" t="s">
         <v>10</v>
@@ -2803,7 +2803,7 @@
         <v>94</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="I44" s="25">
         <v>4</v>
@@ -2824,7 +2824,7 @@
         <v>51</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D45" s="21" t="s">
         <v>10</v>
@@ -2858,7 +2858,7 @@
         <v>31</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>10</v>
@@ -2880,7 +2880,7 @@
         <v>4</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3185,10 +3185,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/price/interval</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>10</v>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="13" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="I9" s="8">
         <v>4</v>
@@ -3222,7 +3222,7 @@
         <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -3292,7 +3292,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
@@ -3314,7 +3314,7 @@
         <v>4</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3587,7 +3587,7 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/price/monthlyFee</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>93</v>
@@ -4007,10 +4007,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/occurrence</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>10</v>
@@ -4069,10 +4069,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/application/interval</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         <v>94</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="I36" s="8">
         <v>4</v>
@@ -4108,7 +4108,7 @@
         <v>51</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>10</v>
@@ -4142,7 +4142,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         <v>4</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/DicionarioDeDados-Contas.xlsx
+++ b/DicionarioDeDados-Contas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erdxbpo\OneDrive - Banco Itaú SA\Documentos\AD\OpenBankingData\Febraban\DataOwner\DicionáriosOficiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{9E20E4C6-DF8A-49C5-AE2B-DB5E2448CFCE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{3B7B1390-918D-4E1C-A239-7D7222008A4E}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{9E20E4C6-DF8A-49C5-AE2B-DB5E2448CFCE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{D30E81C6-8FF2-497B-8983-4835CC496726}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,12 +197,6 @@
     <t>Sigla de identificação de Outros Serviços que incidem sobre os tipos de contas informados.</t>
   </si>
   <si>
-    <t>Outros Fatores geradores de cobrança referentes aos Outros Serviços que incidem sobre as contas comercializadas.</t>
-  </si>
-  <si>
-    <t>Nome do Pacote de Serviços dado pela instituição.</t>
-  </si>
-  <si>
     <t>Quantidade de eventos previstos no Pacote de Serviços (Número de eventos incluídos no mês) p.ex.'2'</t>
   </si>
   <si>
@@ -210,9 +204,6 @@
   </si>
   <si>
     <t>Lista de formas de movimentação possíveis para a conta, p. ex. 'movimentação com cartão'.</t>
-  </si>
-  <si>
-    <t>Critérios de elegibilidade para a aquisição do tipo de conta comercializado.</t>
   </si>
   <si>
     <t xml:space="preserve">Moeda referente ao saldo mínimo exigido, segundo modelo ISO-4217. p. ex. 'BRL' </t>
@@ -805,10 +796,6 @@
     <t>Nomes dos Serviços prioritários, segundo Resolução 3.919 do Bacen, para pessoa física. (Campo Livre). p.ex. 'Fornecimento de extrato de um período de conta de depósitos à vista e de poupança'</t>
   </si>
   <si>
-    <t xml:space="preserve">Fatores geradores de cobrança que incidem sobre os serviços prioritários, segundo Resolução 3.919 do Bacen, para pessoa física. P. ex. 'Fornecimento de extrato com a movimentação de um período em guichê de caixa ou por outras formas de atendimento pessoal, tal como atendimento telefônico realizado por atendente.'
-</t>
-  </si>
-  <si>
     <t>Faixas de valor referente a tarifa do serviço prioritário informado: mínimo, 1ª faixa de valores, 2ª faixa de valores, 3ª faixa de valores e 4ª faixa de valores</t>
   </si>
   <si>
@@ -826,6 +813,19 @@
   </si>
   <si>
     <t>Faixas de valor referente a tarifa informado: mínimo, 1ª faixa de valores, 2ª faixa de valores, 3ª faixa de valores e 4ª faixa de valores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome do Pacote de Serviços dado pela instituição. p. ex. 'Pacote Básico 1.0' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatos geradores de cobrança que incidem sobre os serviços prioritários, segundo Resolução 3.919 do Bacen, para pessoa física. P. ex. 'Fornecimento de extrato com a movimentação de um período em guichê de caixa ou por outras formas de atendimento pessoal, tal como atendimento telefônico realizado por atendente.'
+</t>
+  </si>
+  <si>
+    <t>Outros fatos geradores de cobrança referentes aos Outros Serviços que incidem sobre as contas comercializadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critérios de elegibilidade para a aquisição do tipo de conta comercializado. p. ex. 'Consultar em www.banco.com.br/elegibilidade-conta' </t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -1400,7 +1400,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>10</v>
@@ -1435,7 +1435,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>10</v>
@@ -1503,7 +1503,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>10</v>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I5" s="25">
         <v>1</v>
@@ -1536,7 +1536,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>10</v>
@@ -1598,10 +1598,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/chargingTriggerInfo</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>10</v>
@@ -1630,10 +1630,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/price/interval</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>10</v>
@@ -1645,10 +1645,10 @@
         <v>11</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I9" s="25">
         <v>4</v>
@@ -1657,7 +1657,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -1666,10 +1666,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/price/value</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>10</v>
@@ -1681,7 +1681,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="25">
@@ -1691,7 +1691,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -1703,7 +1703,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>10</v>
@@ -1727,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -1739,7 +1739,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>10</v>
@@ -1761,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1770,10 +1770,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/priorityServices/chargingUnit</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>10</v>
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>10</v>
@@ -1862,10 +1862,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/chargingTriggerInfo</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>10</v>
@@ -1892,10 +1892,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/interval</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>10</v>
@@ -1907,10 +1907,10 @@
         <v>11</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I17" s="25">
         <v>4</v>
@@ -1919,7 +1919,7 @@
         <v>4</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -1928,10 +1928,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/price/value</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>10</v>
@@ -1943,7 +1943,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H18" s="24"/>
       <c r="I18" s="25">
@@ -1953,7 +1953,7 @@
         <v>4</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1965,7 +1965,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>10</v>
@@ -1989,7 +1989,7 @@
         <v>4</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -2001,7 +2001,7 @@
         <v>31</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>10</v>
@@ -2023,7 +2023,7 @@
         <v>4</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -2032,10 +2032,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/additionalInfo</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>10</v>
@@ -2057,7 +2057,7 @@
         <v>35</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -2066,10 +2066,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/fees/otherServices/chargingUnit</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>10</v>
@@ -2091,7 +2091,7 @@
         <v>35</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2102,8 +2102,8 @@
       <c r="B23" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>44</v>
+      <c r="C23" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>10</v>
@@ -2133,7 +2133,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>10</v>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I24" s="30">
         <v>1</v>
@@ -2165,7 +2165,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>10</v>
@@ -2226,10 +2226,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/services/price/value</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>10</v>
@@ -2241,7 +2241,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H27" s="31"/>
       <c r="I27" s="25">
@@ -2251,7 +2251,7 @@
         <v>35</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2263,7 +2263,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>10</v>
@@ -2287,7 +2287,7 @@
         <v>35</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -2296,10 +2296,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/serviceBundles/price/monthlyFee</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>10</v>
@@ -2311,7 +2311,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H29" s="31"/>
       <c r="I29" s="25">
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2333,7 +2333,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>10</v>
@@ -2357,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="2"/>
@@ -2373,10 +2373,10 @@
         <v xml:space="preserve">openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/openingClosingChannels </v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>10</v>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="G31" s="24"/>
       <c r="H31" s="26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I31" s="25">
         <v>1</v>
@@ -2405,10 +2405,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/additionalInfo</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D32" s="27" t="s">
         <v>10</v>
@@ -2430,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -2439,10 +2439,10 @@
         <v xml:space="preserve">openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/transactionMethods  </v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D33" s="27" t="s">
         <v>10</v>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="G33" s="24"/>
       <c r="H33" s="31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I33" s="25">
         <v>1</v>
@@ -2474,7 +2474,7 @@
         <v>24</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>10</v>
@@ -2486,7 +2486,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H34" s="26"/>
       <c r="I34" s="25">
@@ -2506,7 +2506,7 @@
         <v>25</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D35" s="21" t="s">
         <v>10</v>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="K35" s="22"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/",B36)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/termsConditions/elegibilityCriteriaInfo</v>
@@ -2540,7 +2540,7 @@
         <v>26</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>10</v>
@@ -2570,7 +2570,7 @@
         <v>27</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D37" s="21" t="s">
         <v>10</v>
@@ -2597,10 +2597,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/rate</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D38" s="21" t="s">
         <v>10</v>
@@ -2632,7 +2632,7 @@
         <v>28</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D39" s="21" t="s">
         <v>10</v>
@@ -2664,7 +2664,7 @@
         <v>29</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D40" s="27" t="s">
         <v>10</v>
@@ -2694,7 +2694,7 @@
         <v>30</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>10</v>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="G41" s="24"/>
       <c r="H41" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I41" s="25">
         <v>0</v>
@@ -2723,10 +2723,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/occurrence</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>10</v>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="G42" s="24"/>
       <c r="H42" s="29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I42" s="25">
         <v>0</v>
@@ -2752,10 +2752,10 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/additionalinfo</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/additionalInfo</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>14</v>
@@ -2785,10 +2785,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/interval</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D44" s="21" t="s">
         <v>10</v>
@@ -2800,10 +2800,10 @@
         <v>11</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I44" s="25">
         <v>4</v>
@@ -2812,7 +2812,7 @@
         <v>4</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2821,10 +2821,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalAccounts/incomeRates/application/rate</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D45" s="21" t="s">
         <v>10</v>
@@ -2846,7 +2846,7 @@
         <v>4</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2858,7 +2858,7 @@
         <v>31</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>10</v>
@@ -2880,7 +2880,7 @@
         <v>4</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2962,7 +2962,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -2997,7 +2997,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -3031,7 +3031,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -3065,7 +3065,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>10</v>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I5" s="8">
         <v>1</v>
@@ -3098,7 +3098,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -3155,10 +3155,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/chargingTriggerInfo</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -3185,10 +3185,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/price/interval</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>10</v>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I9" s="8">
         <v>4</v>
@@ -3210,7 +3210,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -3219,10 +3219,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/price/value</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -3234,7 +3234,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="8">
@@ -3244,7 +3244,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3256,7 +3256,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
@@ -3280,7 +3280,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3292,7 +3292,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
@@ -3314,7 +3314,7 @@
         <v>4</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3323,10 +3323,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/additionalInfo</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
@@ -3348,7 +3348,7 @@
         <v>35</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3357,10 +3357,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/fees/otherServices/chargingUnit</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
@@ -3382,7 +3382,7 @@
         <v>35</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3394,7 +3394,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
@@ -3424,7 +3424,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I16" s="9">
         <v>1</v>
@@ -3456,7 +3456,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
@@ -3517,10 +3517,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/services/price/value</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
@@ -3532,7 +3532,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="9">
@@ -3542,7 +3542,7 @@
         <v>4</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3554,7 +3554,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>10</v>
@@ -3578,7 +3578,7 @@
         <v>4</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3587,10 +3587,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/serviceBundles/price/monthlyFee</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
@@ -3602,7 +3602,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="8">
@@ -3612,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3624,7 +3624,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
@@ -3648,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -3657,10 +3657,10 @@
         <v xml:space="preserve">openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/openingClosingChannels </v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>10</v>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I23" s="8">
         <v>1</v>
@@ -3689,10 +3689,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/additionalInfo</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>10</v>
@@ -3714,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3723,10 +3723,10 @@
         <v xml:space="preserve">openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/transactionMethods  </v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>10</v>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I25" s="8">
         <v>1</v>
@@ -3758,7 +3758,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>10</v>
@@ -3770,7 +3770,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="8">
@@ -3790,7 +3790,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>10</v>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/",B28)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/termsConditions/elegibilityCriteriaInfo</v>
@@ -3823,8 +3823,8 @@
       <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>48</v>
+      <c r="C28" s="26" t="s">
+        <v>125</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>10</v>
@@ -3854,7 +3854,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>10</v>
@@ -3881,10 +3881,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/rate</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>10</v>
@@ -3916,7 +3916,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>10</v>
@@ -3948,7 +3948,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>10</v>
@@ -3978,7 +3978,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>10</v>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I33" s="8">
         <v>0</v>
@@ -4007,10 +4007,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/occurrence</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>10</v>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I34" s="8">
         <v>0</v>
@@ -4069,10 +4069,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/application/interval</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>10</v>
@@ -4084,10 +4084,10 @@
         <v>11</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I36" s="8">
         <v>4</v>
@@ -4096,7 +4096,7 @@
         <v>4</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4105,10 +4105,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessAccounts/incomeRates/application/rate</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>10</v>
@@ -4130,7 +4130,7 @@
         <v>4</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4142,7 +4142,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         <v>4</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
